--- a/samples/grafico_snr_compressao.xlsx
+++ b/samples/grafico_snr_compressao.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="resultados compressao" sheetId="1" r:id="rId1"/>
     <sheet name="tempo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>alfa</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>File codificado</t>
+  </si>
+  <si>
+    <t>Compressao CV2</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-PT" baseline="0"/>
-              <a:t> da compressao </a:t>
+              <a:t> da Dimensão do Ficheiro </a:t>
             </a:r>
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
@@ -244,158 +247,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>snr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>9.2289999999999992</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.33</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.3339999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.3409999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.3460000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.3529999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6625-4B58-8FFF-FAF6F2E34F4B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'resultados compressao'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -426,7 +282,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>'resultados compressao'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -459,33 +315,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:f>'resultados compressao'!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>27.81</c:v>
+                  <c:v>22.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.700000000000003</c:v>
+                  <c:v>30.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.1</c:v>
+                  <c:v>38.74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.22</c:v>
+                  <c:v>42.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.53</c:v>
+                  <c:v>47.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.05</c:v>
+                  <c:v>51.47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.18</c:v>
+                  <c:v>56.42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71.56</c:v>
+                  <c:v>65.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -497,116 +353,7 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>saldo compressao</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>61.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45.87</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41.74</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37.43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.79</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6625-4B58-8FFF-FAF6F2E34F4B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -614,7 +361,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="637271160"/>
         <c:axId val="637269848"/>
@@ -629,7 +375,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$1</c15:sqref>
+                          <c15:sqref>'resultados compressao'!$A$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -706,7 +452,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$9</c15:sqref>
+                          <c15:sqref>'resultados compressao'!$A$2:$A$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -745,7 +491,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$9</c15:sqref>
+                          <c15:sqref>'resultados compressao'!$A$2:$A$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -793,10 +539,10 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1</c15:sqref>
+                          <c15:sqref>'resultados compressao'!$B$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -870,10 +616,10 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$9</c15:sqref>
+                          <c15:sqref>'resultados compressao'!$A$2:$A$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -909,10 +655,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$B$9</c15:sqref>
+                          <c15:sqref>'resultados compressao'!$B$2:$B$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -947,9 +693,176 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-6625-4B58-8FFF-FAF6F2E34F4B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'resultados compressao'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>snr</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent6">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent6">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent6">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'resultados compressao'!$A$2:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'resultados compressao'!$C$2:$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>24.742999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>27.295000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>28.597999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>29.460999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30.123999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>30.773</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>31.635999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>32.834000000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-6625-4B58-8FFF-FAF6F2E34F4B}"/>
+                    <c16:uniqueId val="{00000002-6625-4B58-8FFF-FAF6F2E34F4B}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -960,10 +873,10 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$1</c15:sqref>
+                          <c15:sqref>'resultados compressao'!$D$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1044,10 +957,10 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$9</c15:sqref>
+                          <c15:sqref>'resultados compressao'!$A$2:$A$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1083,10 +996,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$2:$D$9</c15:sqref>
+                          <c15:sqref>'resultados compressao'!$D$2:$D$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1094,34 +1007,34 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>88.97</c:v>
+                        <c:v>256.33999999999997</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>88.97</c:v>
+                        <c:v>256.33999999999997</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>88.97</c:v>
+                        <c:v>256.33999999999997</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>88.97</c:v>
+                        <c:v>256.33999999999997</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>88.97</c:v>
+                        <c:v>256.33999999999997</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>88.97</c:v>
+                        <c:v>256.33999999999997</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>88.97</c:v>
+                        <c:v>256.33999999999997</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>88.97</c:v>
+                        <c:v>256.33999999999997</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-6625-4B58-8FFF-FAF6F2E34F4B}"/>
                   </c:ext>
@@ -1134,10 +1047,10 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                          <c15:sqref>'resultados compressao'!$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1218,10 +1131,10 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$9</c15:sqref>
+                          <c15:sqref>'resultados compressao'!$A$2:$A$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1257,10 +1170,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$2:$F$9</c15:sqref>
+                          <c15:sqref>'resultados compressao'!$F$2:$F$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1268,28 +1181,156 @@
                       <c:formatCode>0.00%</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>3.1991080521100002</c:v>
+                        <c:v>11.435155739500001</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2.4922306724299998</c:v>
+                        <c:v>8.2795230885700004</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2.0641908732499998</c:v>
+                        <c:v>6.6177738560400003</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.8839647613499999</c:v>
+                        <c:v>5.9969843046799998</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1.7263786242200001</c:v>
+                        <c:v>5.4364592825800004</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1.5872083906800001</c:v>
+                        <c:v>4.9803437938800004</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>1.45421894455</c:v>
+                        <c:v>4.5435411005099997</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>1.2431735374799999</c:v>
+                        <c:v>3.9116906340800002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-6625-4B58-8FFF-FAF6F2E34F4B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'resultados compressao'!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>saldo compressao</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'resultados compressao'!$A$2:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'resultados compressao'!$G$2:$G$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>233.92</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>225.38</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>217.61</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>213.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>209.19</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>204.87</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>199.92</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>190.81</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1297,7 +1338,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-6625-4B58-8FFF-FAF6F2E34F4B}"/>
+                    <c16:uniqueId val="{00000006-6625-4B58-8FFF-FAF6F2E34F4B}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1449,7 +1490,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>Kbites</a:t>
+                  <a:t>KbYtes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1653,6 +1694,1392 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'resultados compressao'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>snr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'resultados compressao'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'resultados compressao'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24.742999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.295000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.597999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.460999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.123999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.773</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.635999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.834000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.084000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9096-4968-A9BE-FDA6BFEE84EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="576761088"/>
+        <c:axId val="576761744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="576761088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Factor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> Q</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="576761744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="576761744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Decibeis</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="576761088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'resultados compressao'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>saldo compressao</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'resultados compressao'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'resultados compressao'!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>233.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>209.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>178.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0CD-4CD0-BBB5-CDC8AD732CA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="497492424"/>
+        <c:axId val="318799952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="497492424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Factor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> Q</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="318799952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="318799952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Kbytes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497492424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'resultados compressao'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tx compressao</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'resultados compressao'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'resultados compressao'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>11.435155739500001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2795230885700004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6177738560400003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9969843046799998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4364592825800004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9803437938800004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5435411005099997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9116906340800002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3083447815200002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F64D-44AD-BCF3-34CCBD578918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="318801920"/>
+        <c:axId val="318795032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="318801920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Factor Q</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="318795032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="318795032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>% de compressão</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="318801920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1793,28 +3220,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.8999999999999997E-2</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7999999999999995E-2</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7.8E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.4000000000000005E-2</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8999999999999997E-2</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8999999999999997E-2</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,28 +3316,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1985,28 +3412,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.30099999999999999</c:v>
+                  <c:v>0.14699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36599999999999999</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38800000000000001</c:v>
+                  <c:v>0.184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39900000000000002</c:v>
+                  <c:v>0.35199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.308</c:v>
+                  <c:v>0.29499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50600000000000001</c:v>
+                  <c:v>0.26400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30299999999999999</c:v>
+                  <c:v>0.45500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35899999999999999</c:v>
+                  <c:v>0.23200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2081,28 +3508,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.109</c:v>
+                  <c:v>5.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14099999999999999</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14899999999999999</c:v>
+                  <c:v>0.16900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22500000000000001</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17699999999999999</c:v>
+                  <c:v>0.27200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.221</c:v>
+                  <c:v>0.247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,28 +3604,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0660000000000001</c:v>
+                  <c:v>0.44800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.591</c:v>
+                  <c:v>0.78600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.85</c:v>
+                  <c:v>0.94699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0630000000000002</c:v>
+                  <c:v>1.544</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3969999999999998</c:v>
+                  <c:v>1.7210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9620000000000002</c:v>
+                  <c:v>2.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5680000000000001</c:v>
+                  <c:v>2.9510000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4279999999999999</c:v>
+                  <c:v>3.8319999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,28 +3700,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.15</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.192</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20100000000000001</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.223</c:v>
+                  <c:v>3.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23300000000000001</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2321,9 +3748,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2371,28 +3796,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2469,28 +3894,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.8000000000000005E-2</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1000000000000003E-2</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11799999999999999</c:v>
+                  <c:v>6.7000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6999999999999999E-2</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7000000000000004E-2</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3E-2</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2694,6 +4119,29 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -2847,6 +4295,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -3344,6 +4912,1494 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3881,6 +6937,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27835AA2-8E49-4D19-B6E7-8DAAB98E232F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFDB2E49-D99C-480F-AC61-D9FF13301D71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0DECB41-D547-434F-8145-DE6BC36CBE5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4227,10 +7391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4238,7 +7402,7 @@
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4260,8 +7424,11 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -4269,22 +7436,23 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>9.2289999999999992</v>
+        <v>24.742999999999999</v>
       </c>
       <c r="D2">
-        <v>88.97</v>
+        <v>256.33999999999997</v>
       </c>
       <c r="E2">
-        <v>27.81</v>
+        <v>22.42</v>
       </c>
       <c r="F2" s="1">
-        <v>3.1991080521100002</v>
+        <f>11.4351557395</f>
+        <v>11.435155739500001</v>
       </c>
       <c r="G2">
-        <v>61.16</v>
+        <v>233.92</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -4292,22 +7460,22 @@
         <v>2.5</v>
       </c>
       <c r="C3">
-        <v>9.3000000000000007</v>
+        <v>27.295000000000002</v>
       </c>
       <c r="D3">
-        <v>88.97</v>
+        <v>256.33999999999997</v>
       </c>
       <c r="E3">
-        <v>35.700000000000003</v>
+        <v>30.96</v>
       </c>
       <c r="F3" s="1">
-        <v>2.4922306724299998</v>
+        <v>8.2795230885700004</v>
       </c>
       <c r="G3">
-        <v>53.27</v>
+        <v>225.38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
@@ -4315,22 +7483,22 @@
         <v>1.66</v>
       </c>
       <c r="C4">
-        <v>9.32</v>
+        <v>28.597999999999999</v>
       </c>
       <c r="D4">
-        <v>88.97</v>
+        <v>256.33999999999997</v>
       </c>
       <c r="E4">
-        <v>43.1</v>
+        <v>38.74</v>
       </c>
       <c r="F4" s="1">
-        <v>2.0641908732499998</v>
+        <v>6.6177738560400003</v>
       </c>
       <c r="G4">
-        <v>45.87</v>
+        <v>217.61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -4338,22 +7506,22 @@
         <v>1.25</v>
       </c>
       <c r="C5">
-        <v>9.33</v>
+        <v>29.460999999999999</v>
       </c>
       <c r="D5">
-        <v>88.97</v>
+        <v>256.33999999999997</v>
       </c>
       <c r="E5">
-        <v>47.22</v>
+        <v>42.75</v>
       </c>
       <c r="F5" s="1">
-        <v>1.8839647613499999</v>
+        <v>5.9969843046799998</v>
       </c>
       <c r="G5">
-        <v>41.74</v>
+        <v>213.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
@@ -4361,22 +7529,22 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>9.3339999999999996</v>
+        <v>30.123999999999999</v>
       </c>
       <c r="D6">
-        <v>88.97</v>
+        <v>256.33999999999997</v>
       </c>
       <c r="E6">
-        <v>51.53</v>
+        <v>47.15</v>
       </c>
       <c r="F6" s="1">
-        <v>1.7263786242200001</v>
+        <v>5.4364592825800004</v>
       </c>
       <c r="G6">
-        <v>37.43</v>
+        <v>209.19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
@@ -4384,22 +7552,22 @@
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>9.3409999999999993</v>
+        <v>30.773</v>
       </c>
       <c r="D7">
-        <v>88.97</v>
+        <v>256.33999999999997</v>
       </c>
       <c r="E7">
-        <v>56.05</v>
+        <v>51.47</v>
       </c>
       <c r="F7" s="1">
-        <v>1.5872083906800001</v>
+        <v>4.9803437938800004</v>
       </c>
       <c r="G7">
-        <v>32.909999999999997</v>
+        <v>204.87</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>70</v>
       </c>
@@ -4407,22 +7575,22 @@
         <v>0.6</v>
       </c>
       <c r="C8">
-        <v>9.3460000000000001</v>
+        <v>31.635999999999999</v>
       </c>
       <c r="D8">
-        <v>88.97</v>
+        <v>256.33999999999997</v>
       </c>
       <c r="E8">
-        <v>61.18</v>
+        <v>56.42</v>
       </c>
       <c r="F8" s="1">
-        <v>1.45421894455</v>
+        <v>4.5435411005099997</v>
       </c>
       <c r="G8">
-        <v>27.79</v>
+        <v>199.92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80</v>
       </c>
@@ -4430,19 +7598,42 @@
         <v>0.4</v>
       </c>
       <c r="C9">
-        <v>9.3529999999999998</v>
+        <v>32.834000000000003</v>
       </c>
       <c r="D9">
-        <v>88.97</v>
+        <v>256.33999999999997</v>
       </c>
       <c r="E9">
-        <v>71.56</v>
+        <v>65.53</v>
       </c>
       <c r="F9" s="1">
-        <v>1.2431735374799999</v>
+        <v>3.9116906340800002</v>
       </c>
       <c r="G9">
-        <v>17.399999999999999</v>
+        <v>190.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>35.084000000000003</v>
+      </c>
+      <c r="D10">
+        <v>256.33999999999997</v>
+      </c>
+      <c r="E10">
+        <v>77.48</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.3083447815200002</v>
+      </c>
+      <c r="G10">
+        <v>178.86</v>
       </c>
     </row>
   </sheetData>
@@ -4454,10 +7645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4501,28 +7692,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5.8999999999999997E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C2">
-        <v>8.0000000000000002E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D2">
-        <v>0.30099999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="E2">
-        <v>0.109</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F2">
-        <v>1.0660000000000001</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="G2">
-        <v>0.15</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H2">
-        <v>6.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I2">
-        <v>6.8000000000000005E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4530,28 +7721,28 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>0.06</v>
+        <v>6.3E-2</v>
       </c>
       <c r="C3">
-        <v>8.0000000000000002E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D3">
-        <v>0.36599999999999999</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="E3">
-        <v>0.16</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F3">
-        <v>1.591</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="G3">
-        <v>0.192</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H3">
-        <v>6.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I3">
-        <v>8.1000000000000003E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4559,28 +7750,28 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <v>8.7999999999999995E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="C4">
-        <v>1.0999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D4">
-        <v>0.38800000000000001</v>
+        <v>0.184</v>
       </c>
       <c r="E4">
-        <v>0.14099999999999999</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F4">
-        <v>1.85</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="G4">
-        <v>0.27200000000000002</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H4">
-        <v>8.0000000000000002E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I4">
-        <v>0.11799999999999999</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4588,28 +7779,28 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>7.8E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C5">
-        <v>1.0999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D5">
-        <v>0.39900000000000002</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="E5">
         <v>0.158</v>
       </c>
       <c r="F5">
-        <v>2.0630000000000002</v>
+        <v>1.544</v>
       </c>
       <c r="G5">
-        <v>0.20100000000000001</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H5">
-        <v>7.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I5">
-        <v>7.6999999999999999E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4617,28 +7808,28 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="C6">
-        <v>8.9999999999999993E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D6">
-        <v>0.308</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="E6">
-        <v>0.14899999999999999</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="F6">
-        <v>2.3969999999999998</v>
+        <v>1.7210000000000001</v>
       </c>
       <c r="G6">
-        <v>0.20499999999999999</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H6">
-        <v>6.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I6">
-        <v>0.08</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4646,28 +7837,28 @@
         <v>60</v>
       </c>
       <c r="B7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="C7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.17</v>
+      </c>
+      <c r="F7">
+        <v>2.1680000000000001</v>
+      </c>
+      <c r="G7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I7">
         <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C7">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D7">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="F7">
-        <v>2.9620000000000002</v>
-      </c>
-      <c r="G7">
-        <v>0.25</v>
-      </c>
-      <c r="H7">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="I7">
-        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4675,28 +7866,28 @@
         <v>70</v>
       </c>
       <c r="B8">
-        <v>5.8999999999999997E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="C8">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D8">
-        <v>0.30299999999999999</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="E8">
-        <v>0.17699999999999999</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="F8">
-        <v>2.5680000000000001</v>
+        <v>2.9510000000000001</v>
       </c>
       <c r="G8">
-        <v>0.223</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="H8">
-        <v>5.0000000000000001E-3</v>
+        <v>2.4E-2</v>
       </c>
       <c r="I8">
-        <v>6.7000000000000004E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4704,28 +7895,57 @@
         <v>80</v>
       </c>
       <c r="B9">
-        <v>5.8999999999999997E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="C9">
-        <v>8.0000000000000002E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D9">
-        <v>0.35899999999999999</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="E9">
-        <v>0.221</v>
+        <v>0.247</v>
       </c>
       <c r="F9">
-        <v>3.4279999999999999</v>
+        <v>3.8319999999999999</v>
       </c>
       <c r="G9">
-        <v>0.23300000000000001</v>
+        <v>4.7E-2</v>
       </c>
       <c r="H9">
-        <v>5.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I9">
-        <v>6.3E-2</v>
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.434</v>
+      </c>
+      <c r="E10">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F10">
+        <v>7.1120000000000001</v>
+      </c>
+      <c r="G10">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I10">
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
   </sheetData>

--- a/samples/grafico_snr_compressao.xlsx
+++ b/samples/grafico_snr_compressao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="resultados compressao" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>alfa</t>
   </si>
@@ -70,7 +70,10 @@
     <t>File codificado</t>
   </si>
   <si>
-    <t>Compressao CV2</t>
+    <t>compressao CV2</t>
+  </si>
+  <si>
+    <t>compressao gimp</t>
   </si>
 </sst>
 </file>
@@ -3086,6 +3089,531 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>Comparativo Compressão</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'resultados compressao'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>File codificado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'resultados compressao'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>22.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B6D-4130-B311-F5481E241B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'resultados compressao'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressao CV2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'resultados compressao'!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B6D-4130-B311-F5481E241B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'resultados compressao'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>compressao gimp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'resultados compressao'!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B6D-4130-B311-F5481E241B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="499958632"/>
+        <c:axId val="499966832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="499958632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499966832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="499966832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499958632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -3182,10 +3710,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>tempo!$A$2:$A$9</c:f>
+              <c:f>tempo!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3209,16 +3737,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tempo!$B$2:$B$9</c:f>
+              <c:f>tempo!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
@@ -3242,6 +3773,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3278,10 +3812,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>tempo!$A$2:$A$9</c:f>
+              <c:f>tempo!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3305,16 +3839,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tempo!$C$2:$C$9</c:f>
+              <c:f>tempo!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
@@ -3338,6 +3875,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3374,10 +3914,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>tempo!$A$2:$A$9</c:f>
+              <c:f>tempo!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3401,16 +3941,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tempo!$D$2:$D$9</c:f>
+              <c:f>tempo!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.14699999999999999</c:v>
                 </c:pt>
@@ -3434,6 +3977,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3470,10 +4016,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>tempo!$A$2:$A$9</c:f>
+              <c:f>tempo!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3497,16 +4043,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tempo!$E$2:$E$9</c:f>
+              <c:f>tempo!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5.2999999999999999E-2</c:v>
                 </c:pt>
@@ -3530,6 +4079,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55600000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3566,10 +4118,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>tempo!$A$2:$A$9</c:f>
+              <c:f>tempo!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3593,16 +4145,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tempo!$F$2:$F$9</c:f>
+              <c:f>tempo!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.44800000000000001</c:v>
                 </c:pt>
@@ -3626,6 +4181,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1120000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3662,10 +4220,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>tempo!$A$2:$A$9</c:f>
+              <c:f>tempo!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3689,16 +4247,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tempo!$G$2:$G$9</c:f>
+              <c:f>tempo!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.6E-2</c:v>
                 </c:pt>
@@ -3722,6 +4283,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,10 +4322,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>tempo!$A$2:$A$9</c:f>
+              <c:f>tempo!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3785,16 +4349,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tempo!$H$2:$H$9</c:f>
+              <c:f>tempo!$H$2:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
@@ -3818,6 +4385,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3856,10 +4426,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>tempo!$A$2:$A$9</c:f>
+              <c:f>tempo!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3883,16 +4453,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tempo!$I$2:$I$9</c:f>
+              <c:f>tempo!$I$2:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
@@ -3916,6 +4489,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4415,6 +4991,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -6400,6 +7016,502 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7045,6 +8157,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171CA083-6010-4E9D-B7DA-FC123AD1A8B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7391,18 +8539,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7427,8 +8576,11 @@
       <c r="H1" t="s">
         <v>16</v>
       </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -7451,8 +8603,14 @@
       <c r="G2">
         <v>233.92</v>
       </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -7474,8 +8632,14 @@
       <c r="G3">
         <v>225.38</v>
       </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
@@ -7497,8 +8661,14 @@
       <c r="G4">
         <v>217.61</v>
       </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -7520,8 +8690,14 @@
       <c r="G5">
         <v>213.6</v>
       </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
@@ -7543,8 +8719,14 @@
       <c r="G6">
         <v>209.19</v>
       </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
@@ -7566,8 +8748,14 @@
       <c r="G7">
         <v>204.87</v>
       </c>
+      <c r="H7">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>70</v>
       </c>
@@ -7589,8 +8777,14 @@
       <c r="G8">
         <v>199.92</v>
       </c>
+      <c r="H8">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80</v>
       </c>
@@ -7612,8 +8806,14 @@
       <c r="G9">
         <v>190.81</v>
       </c>
+      <c r="H9">
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <v>37</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>90</v>
       </c>
@@ -7634,6 +8834,12 @@
       </c>
       <c r="G10">
         <v>178.86</v>
+      </c>
+      <c r="H10">
+        <v>58</v>
+      </c>
+      <c r="I10">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -7647,8 +8853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
